--- a/TimeSheet-Kamran.xlsx
+++ b/TimeSheet-Kamran.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10668"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Task Name</t>
   </si>
@@ -57,12 +57,15 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>Unit Tested?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +133,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +266,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,40 +441,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="40.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="139.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="139.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="40.5" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +506,11 @@
       <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="40.5" customHeight="1">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -515,11 +520,11 @@
       <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>42121</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="40.5" customHeight="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -529,7 +534,7 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>42122</v>
       </c>
     </row>
@@ -543,24 +548,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TimeSheet-Kamran.xlsx
+++ b/TimeSheet-Kamran.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10668"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Task Name</t>
   </si>
@@ -49,23 +49,20 @@
 Before start of next action item/task please circulate email</t>
   </si>
   <si>
-    <t>WebForm</t>
-  </si>
-  <si>
-    <t>TankHistory web form.</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Unit Tested?</t>
+  </si>
+  <si>
+    <t>TankHistory page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,6 +264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,29 +440,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="139.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="139.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5" customHeight="1">
+    <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -475,7 +474,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="40.5" customHeight="1">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,38 +503,24 @@
         <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
       </c>
       <c r="J3" s="3">
         <v>42121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="3">
-        <v>42122</v>
       </c>
     </row>
   </sheetData>
@@ -548,24 +533,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TimeSheet-Kamran.xlsx
+++ b/TimeSheet-Kamran.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Task Name</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>TankHistory page</t>
+  </si>
+  <si>
+    <t>Yard page</t>
+  </si>
+  <si>
+    <t>Invoices page</t>
   </si>
 </sst>
 </file>
@@ -441,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -519,8 +525,33 @@
       <c r="G3">
         <v>9</v>
       </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
       <c r="J3" s="3">
         <v>42121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet-Kamran.xlsx
+++ b/TimeSheet-Kamran.xlsx
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -542,6 +542,9 @@
       <c r="G4">
         <v>7</v>
       </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">

--- a/TimeSheet-Kamran.xlsx
+++ b/TimeSheet-Kamran.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10668"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Task Name</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>Invoices page</t>
+  </si>
+  <si>
+    <t>HSEReport</t>
+  </si>
+  <si>
+    <t>InvoiceSummary</t>
+  </si>
+  <si>
+    <t>IdleEquipment</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -447,28 +459,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="139.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="139.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -480,7 +492,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -532,7 +544,7 @@
         <v>42121</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -546,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -555,6 +567,69 @@
       </c>
       <c r="G5">
         <v>6</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.45</v>
+      </c>
+      <c r="J6" s="3">
+        <v>42149</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>42149</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.45</v>
+      </c>
+      <c r="J8" s="3">
+        <v>42149</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -572,7 +647,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -584,7 +659,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TimeSheet-Kamran.xlsx
+++ b/TimeSheet-Kamran.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Task Name</t>
   </si>
@@ -74,6 +74,51 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Charge Codes</t>
+  </si>
+  <si>
+    <t>Dispatch Reason Type</t>
+  </si>
+  <si>
+    <t>Drivers</t>
+  </si>
+  <si>
+    <t>EquipmentTypes</t>
+  </si>
+  <si>
+    <t>Facility Parameters</t>
+  </si>
+  <si>
+    <t>Fittings</t>
+  </si>
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>Maintenance Condition</t>
+  </si>
+  <si>
+    <t>Movement Type</t>
+  </si>
+  <si>
+    <t>On/Off Hire Reason</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Owners</t>
+  </si>
+  <si>
+    <t>Tank Construction</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Waste Class</t>
   </si>
 </sst>
 </file>
@@ -459,15 +504,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -629,6 +674,306 @@
         <v>42149</v>
       </c>
       <c r="K8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>42184</v>
+      </c>
+      <c r="K23" t="s">
         <v>18</v>
       </c>
     </row>
